--- a/realsense/numbers/PSNR/prop-original/psnr-average_real_prop-original-v1_nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-original/psnr-average_real_prop-original-v1_nph_tileExpand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taw11\source\repos2\At-oZ\realsense\realsense\numbers\PSNR\prop-original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D722F-5FCF-40BA-9949-87C04AB68D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB16E61-C78D-4F7C-AF6F-962CAA05BCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F8221B24-CE8C-4284-B96B-48EDE3EFD3FB}"/>
   </bookViews>
@@ -21,9 +21,6 @@
     <sheet name="4096mm" sheetId="5" r:id="rId6"/>
     <sheet name="8192mm" sheetId="6" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -730,7 +727,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14348568369521567"/>
+          <c:y val="7.9764967305060053E-2"/>
+          <c:w val="0.80493602629746652"/>
+          <c:h val="0.68983321730466718"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1542,6 +1549,505 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2880-48BB-9463-E50DA261C7C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214083023"/>
+        <c:axId val="214073423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214083023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="140"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Number of layers</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214073423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214073423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>PSNR[dB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214083023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75328293313013062"/>
+          <c:y val="0.11559283838594958"/>
+          <c:w val="0.18030300568919591"/>
+          <c:h val="0.36985339529211725"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14348568369521567"/>
+          <c:y val="7.9764967305060053E-2"/>
+          <c:w val="0.80493602629746652"/>
+          <c:h val="0.68983321730466718"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>average!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>average!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.205729166666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.890833333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.764174999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.907720833333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.566933333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.633650000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.587033333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.907720833333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.730916666666669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.85735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-536E-4DB1-AD7E-4EA54D40DA50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1598,27 +2104,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>number</a:t>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Number of layers</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-                  <a:t> of layers</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:endParaRPr lang="ja-JP" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1635,16 +2137,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ja-JP" altLang="en-US"/>
@@ -1670,1197 +2172,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="214073423"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="214073423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="12"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>PSNR[dB]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="214083023"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="2.7777777777777776E-2"/>
-          <c:w val="0.9"/>
-          <c:h val="6.2500437445319343E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>Average</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>average!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>average!$H$2:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>19.205729166666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.890833333333337</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.764174999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.907720833333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.566933333333335</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.633650000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.587033333333334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.907720833333336</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.730916666666669</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.85735</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5F27-4DD8-894F-E5FF71C18343}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="214083023"/>
-        <c:axId val="214073423"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:v>256mm</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>average!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>100</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>average!$B$2:$B$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>18.805625000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>18.805625000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>23.821575000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>22.034849999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>22.034849999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>22.034849999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>22.034849999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>22.034849999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>22.034849999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>22.034849999999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-5F27-4DD8-894F-E5FF71C18343}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:v>512mm</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>average!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>100</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>average!$C$2:$C$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>23.103774999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>23.103774999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>23.103774999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>23.103774999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>23.103774999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>21.761575000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>22.547900000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>23.103774999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>23.103774999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>23.103774999999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-5F27-4DD8-894F-E5FF71C18343}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:v>1024mm</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>average!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>100</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>average!$D$2:$D$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>21.530850000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>21.530850000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>21.530850000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>21.530850000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>21.530850000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>21.530850000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>21.530850000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>21.530850000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>21.530850000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>21.530850000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-5F27-4DD8-894F-E5FF71C18343}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>2048mm</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>average!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>100</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'psnr-mandrill_ideal_real'!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-5F27-4DD8-894F-E5FF71C18343}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:v>4096mm</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>average!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>100</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'psnr-mandrill_ideal_real'!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-5F27-4DD8-894F-E5FF71C18343}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:v>8192mm</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>average!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>100</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'psnr-mandrill_ideal_real'!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-5F27-4DD8-894F-E5FF71C18343}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="214083023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-                  <a:t> of layers</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -2898,23 +2219,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>PSNR[dB]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:endParaRPr lang="ja-JP" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2931,16 +2252,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ja-JP" altLang="en-US"/>
@@ -2949,7 +2270,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2966,16 +2287,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -2984,6 +2305,8 @@
         <c:crossAx val="214083023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2995,47 +2318,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="2.7777777777777776E-2"/>
-          <c:w val="1"/>
-          <c:h val="6.2500437445319343E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3055,7 +2337,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -4190,9 +3475,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4222,21 +3507,21 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>661737</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E33DCD-03E8-4046-A77B-C51DB73EA730}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D914B40-F8FA-4AAC-8ED1-33CB3D466777}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4257,19 +3542,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="psnr-mandrill_ideal_real"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4571,8 +3843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37810512-63FB-4319-992E-A5FCCE9FA93B}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
